--- a/data/158/METI/IIPD/ngsm1e.xlsx
+++ b/data/158/METI/IIPD/ngsm1e.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B648F085-5AAE-4132-8B99-793CDB77356E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6630"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{2F0E1B41-3778-4786-8A00-BCC6617B0C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Ratio" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -114,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,7 +202,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -204,7 +214,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -251,6 +261,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -286,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,22 +481,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8335C8C0-DFF9-4EFD-82B7-B7A4A33D6C7E}">
+  <dimension ref="A1:DH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="109" width="12.625" customWidth="1"/>
+    <col min="1" max="112" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -774,8 +818,17 @@
       <c r="DE2">
         <v>2021001010</v>
       </c>
+      <c r="DF2">
+        <v>2021001111</v>
+      </c>
+      <c r="DG2">
+        <v>2021001212</v>
+      </c>
+      <c r="DH2">
+        <v>2022000101</v>
+      </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1103,8 +1156,17 @@
       <c r="DE3">
         <v>202110</v>
       </c>
+      <c r="DF3">
+        <v>202111</v>
+      </c>
+      <c r="DG3">
+        <v>202112</v>
+      </c>
+      <c r="DH3">
+        <v>202201</v>
+      </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1100000000</v>
       </c>
@@ -1432,8 +1494,17 @@
       <c r="DE4">
         <v>89.7</v>
       </c>
+      <c r="DF4">
+        <v>96.9</v>
+      </c>
+      <c r="DG4">
+        <v>96.5</v>
+      </c>
+      <c r="DH4">
+        <v>93.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1101000000</v>
       </c>
@@ -1761,8 +1832,17 @@
       <c r="DE5">
         <v>96.4</v>
       </c>
+      <c r="DF5">
+        <v>99.4</v>
+      </c>
+      <c r="DG5">
+        <v>98.3</v>
+      </c>
+      <c r="DH5">
+        <v>94.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1101100000</v>
       </c>
@@ -2090,8 +2170,17 @@
       <c r="DE6">
         <v>95.8</v>
       </c>
+      <c r="DF6">
+        <v>98.4</v>
+      </c>
+      <c r="DG6">
+        <v>96.7</v>
+      </c>
+      <c r="DH6">
+        <v>92.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1101200000</v>
       </c>
@@ -2419,8 +2508,17 @@
       <c r="DE7">
         <v>93.7</v>
       </c>
+      <c r="DF7">
+        <v>97.8</v>
+      </c>
+      <c r="DG7">
+        <v>96.1</v>
+      </c>
+      <c r="DH7">
+        <v>97.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1102000000</v>
       </c>
@@ -2748,8 +2846,17 @@
       <c r="DE8">
         <v>88.8</v>
       </c>
+      <c r="DF8">
+        <v>93.4</v>
+      </c>
+      <c r="DG8">
+        <v>91.1</v>
+      </c>
+      <c r="DH8">
+        <v>95.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1103000000</v>
       </c>
@@ -3077,8 +3184,17 @@
       <c r="DE9">
         <v>87.7</v>
       </c>
+      <c r="DF9">
+        <v>92.6</v>
+      </c>
+      <c r="DG9">
+        <v>88.3</v>
+      </c>
+      <c r="DH9">
+        <v>94.9</v>
+      </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1104000000</v>
       </c>
@@ -3406,8 +3522,17 @@
       <c r="DE10">
         <v>113.7</v>
       </c>
+      <c r="DF10">
+        <v>113.1</v>
+      </c>
+      <c r="DG10">
+        <v>110.2</v>
+      </c>
+      <c r="DH10">
+        <v>110.8</v>
+      </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1105000000</v>
       </c>
@@ -3735,8 +3860,17 @@
       <c r="DE11">
         <v>101.3</v>
       </c>
+      <c r="DF11">
+        <v>105.2</v>
+      </c>
+      <c r="DG11">
+        <v>102.5</v>
+      </c>
+      <c r="DH11">
+        <v>103.3</v>
+      </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1106000000</v>
       </c>
@@ -4064,8 +4198,17 @@
       <c r="DE12">
         <v>96.7</v>
       </c>
+      <c r="DF12">
+        <v>93.4</v>
+      </c>
+      <c r="DG12">
+        <v>94.8</v>
+      </c>
+      <c r="DH12">
+        <v>99.6</v>
+      </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1106100000</v>
       </c>
@@ -4393,8 +4536,17 @@
       <c r="DE13">
         <v>94.3</v>
       </c>
+      <c r="DF13">
+        <v>90.8</v>
+      </c>
+      <c r="DG13">
+        <v>87.6</v>
+      </c>
+      <c r="DH13">
+        <v>98.3</v>
+      </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1106200000</v>
       </c>
@@ -4722,8 +4874,17 @@
       <c r="DE14">
         <v>97.7</v>
       </c>
+      <c r="DF14">
+        <v>97.3</v>
+      </c>
+      <c r="DG14">
+        <v>109.3</v>
+      </c>
+      <c r="DH14">
+        <v>106.4</v>
+      </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1107000000</v>
       </c>
@@ -5051,8 +5212,17 @@
       <c r="DE15">
         <v>69.900000000000006</v>
       </c>
+      <c r="DF15">
+        <v>96</v>
+      </c>
+      <c r="DG15">
+        <v>95.7</v>
+      </c>
+      <c r="DH15">
+        <v>80.900000000000006</v>
+      </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1108000000</v>
       </c>
@@ -5380,8 +5550,17 @@
       <c r="DE16">
         <v>84.9</v>
       </c>
+      <c r="DF16">
+        <v>91.7</v>
+      </c>
+      <c r="DG16">
+        <v>92.8</v>
+      </c>
+      <c r="DH16">
+        <v>94.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1109000000</v>
       </c>
@@ -5709,8 +5888,17 @@
       <c r="DE17">
         <v>96.2</v>
       </c>
+      <c r="DF17">
+        <v>94.6</v>
+      </c>
+      <c r="DG17">
+        <v>95.1</v>
+      </c>
+      <c r="DH17">
+        <v>93.1</v>
+      </c>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1111000000</v>
       </c>
@@ -6038,8 +6226,17 @@
       <c r="DE18">
         <v>94.5</v>
       </c>
+      <c r="DF18">
+        <v>89</v>
+      </c>
+      <c r="DG18">
+        <v>93.1</v>
+      </c>
+      <c r="DH18">
+        <v>91.6</v>
+      </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1113000000</v>
       </c>
@@ -6367,8 +6564,17 @@
       <c r="DE19">
         <v>92.8</v>
       </c>
+      <c r="DF19">
+        <v>91.1</v>
+      </c>
+      <c r="DG19">
+        <v>92</v>
+      </c>
+      <c r="DH19">
+        <v>92.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1115000000</v>
       </c>
@@ -6696,8 +6902,17 @@
       <c r="DE20">
         <v>92</v>
       </c>
+      <c r="DF20">
+        <v>92.7</v>
+      </c>
+      <c r="DG20">
+        <v>94.2</v>
+      </c>
+      <c r="DH20">
+        <v>94.8</v>
+      </c>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1115100000</v>
       </c>
@@ -7025,8 +7240,17 @@
       <c r="DE21">
         <v>88.5</v>
       </c>
+      <c r="DF21">
+        <v>87</v>
+      </c>
+      <c r="DG21">
+        <v>89.4</v>
+      </c>
+      <c r="DH21">
+        <v>90.8</v>
+      </c>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1115600000</v>
       </c>
@@ -7354,8 +7578,17 @@
       <c r="DE22">
         <v>94.1</v>
       </c>
+      <c r="DF22">
+        <v>96.8</v>
+      </c>
+      <c r="DG22">
+        <v>98.1</v>
+      </c>
+      <c r="DH22">
+        <v>97.8</v>
+      </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>4100100000</v>
       </c>
@@ -7683,8 +7916,17 @@
       <c r="DE23">
         <v>87.3</v>
       </c>
+      <c r="DF23">
+        <v>99</v>
+      </c>
+      <c r="DG23">
+        <v>98.3</v>
+      </c>
+      <c r="DH23">
+        <v>93.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>4100200000</v>
       </c>
@@ -8012,8 +8254,17 @@
       <c r="DE24">
         <v>93.8</v>
       </c>
+      <c r="DF24">
+        <v>94.9</v>
+      </c>
+      <c r="DG24">
+        <v>95.1</v>
+      </c>
+      <c r="DH24">
+        <v>94.3</v>
+      </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>4200100000</v>
       </c>
@@ -8341,8 +8592,17 @@
       <c r="DE25">
         <v>100.2</v>
       </c>
+      <c r="DF25">
+        <v>102</v>
+      </c>
+      <c r="DG25">
+        <v>99.1</v>
+      </c>
+      <c r="DH25">
+        <v>103</v>
+      </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>4300001000</v>
       </c>
@@ -8670,8 +8930,17 @@
       <c r="DE26">
         <v>88.1</v>
       </c>
+      <c r="DF26">
+        <v>82.3</v>
+      </c>
+      <c r="DG26">
+        <v>81.7</v>
+      </c>
+      <c r="DH26">
+        <v>93.8</v>
+      </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>4300002000</v>
       </c>
@@ -8999,8 +9268,17 @@
       <c r="DE27">
         <v>67.900000000000006</v>
       </c>
+      <c r="DF27">
+        <v>94.8</v>
+      </c>
+      <c r="DG27">
+        <v>95.1</v>
+      </c>
+      <c r="DH27">
+        <v>80.900000000000006</v>
+      </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>4300003000</v>
       </c>
@@ -9327,6 +9605,15 @@
       </c>
       <c r="DE28">
         <v>96.1</v>
+      </c>
+      <c r="DF28">
+        <v>93.8</v>
+      </c>
+      <c r="DG28">
+        <v>94.9</v>
+      </c>
+      <c r="DH28">
+        <v>87.3</v>
       </c>
     </row>
   </sheetData>
